--- a/biology/Histoire de la zoologie et de la botanique/William_Swainson/William_Swainson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Swainson/William_Swainson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William John Swainson est un biologiste (ornithologue, entomologiste, malacologiste...) et un artiste britannique, né le 8 octobre 1789 à St. Mary Newington (Londres) et mort le 6 décembre 1855 à Fern Grove en Nouvelle-Zélande.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À 14 ans, il commence à travailler comme employé des douanes à Liverpool. Il découvre l’histoire naturelle grâce à l’étude des collections de coquilles et d'insectes de son père. Il est incorporé dans l'armée et envoyé en Sicile et à Malte, mais il est bientôt dégagé de ses fonctions à cause de problèmes de santé.
 Il fait paraître, pour le compte du Muséum de Liverpool, des Instructions for Collecting and Preserving Subjects of Natural History en 1808. Il travaille, de 1807 à 1815, pour l'administration militaire et rassemble une vaste collection zoologique. Après la fin des guerres napoléoniennes, il se retire avec une demi-retraite. Il voyage alors au Brésil de 1816 à 1818 et revient en Grande-Bretagne avec une immense collection de 20 000 insectes, 1 200 plantes, des dessins de 120 espèces de poissons et environ 760 peaux d’oiseaux. Il fait paraître, en 1834 et en 1835, les Birds of Brazil.
@@ -548,7 +562,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1839 : The natural history and classification of fishes, amphibians, and reptiles, or monocardian animals. Londres, deux volumes : i–vi + 1–448.</t>
         </is>
@@ -578,7 +594,9 @@
           <t>Espèces éponymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Porte-éventail de Swainson (Onychorhynchus swainsoni) (von Pelzeln, 1858)
 Tyran de Swainson (Myiarchus swainsoni) Cabanis &amp; Heine, 1860</t>
